--- a/Jhimruk Final resutls/Jhimruk_Trend Analysis of Jhimruk Khola_Mean_monthly_series.xlsx
+++ b/Jhimruk Final resutls/Jhimruk_Trend Analysis of Jhimruk Khola_Mean_monthly_series.xlsx
@@ -5,36 +5,38 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\02Jhimruk_working\ZDscreen\Trend Analysis files\Trend Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\Jhimruk Final resutls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="810" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_annaul_English_months" sheetId="1" r:id="rId1"/>
     <sheet name="Mann_Kendall test Manual" sheetId="15" r:id="rId2"/>
-    <sheet name="Mean_annaul_nepalimonths" sheetId="16" r:id="rId3"/>
-    <sheet name="baisakh" sheetId="2" r:id="rId4"/>
-    <sheet name="jeth" sheetId="3" r:id="rId5"/>
-    <sheet name="asar" sheetId="4" r:id="rId6"/>
-    <sheet name="shrawan" sheetId="5" r:id="rId7"/>
-    <sheet name="bhadra" sheetId="6" r:id="rId8"/>
-    <sheet name="bhadra-movingaverage" sheetId="7" r:id="rId9"/>
-    <sheet name="asoj" sheetId="8" r:id="rId10"/>
-    <sheet name="kartik" sheetId="9" r:id="rId11"/>
-    <sheet name="mangsir" sheetId="10" r:id="rId12"/>
-    <sheet name="poush" sheetId="11" r:id="rId13"/>
-    <sheet name="magh" sheetId="12" r:id="rId14"/>
-    <sheet name="falgun" sheetId="13" r:id="rId15"/>
-    <sheet name="chaitra" sheetId="14" r:id="rId16"/>
+    <sheet name="Summary Mann-kendall test" sheetId="17" r:id="rId3"/>
+    <sheet name="Mean_annaul_nepalimonths" sheetId="16" r:id="rId4"/>
+    <sheet name="baisakh" sheetId="2" r:id="rId5"/>
+    <sheet name="jeth" sheetId="3" r:id="rId6"/>
+    <sheet name="asar" sheetId="4" r:id="rId7"/>
+    <sheet name="shrawan" sheetId="5" r:id="rId8"/>
+    <sheet name="bhadra" sheetId="6" r:id="rId9"/>
+    <sheet name="bhadra-movingaverage" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId11"/>
+    <sheet name="asoj" sheetId="8" r:id="rId12"/>
+    <sheet name="kartik" sheetId="9" r:id="rId13"/>
+    <sheet name="mangsir" sheetId="10" r:id="rId14"/>
+    <sheet name="poush" sheetId="11" r:id="rId15"/>
+    <sheet name="magh" sheetId="12" r:id="rId16"/>
+    <sheet name="falgun" sheetId="13" r:id="rId17"/>
+    <sheet name="chaitra" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="292">
   <si>
     <t>Shrawan</t>
   </si>
@@ -510,9 +512,6 @@
     <t>trend</t>
   </si>
   <si>
-    <t>Discharge</t>
-  </si>
-  <si>
     <t>hw meaintenen</t>
   </si>
   <si>
@@ -673,18 +672,259 @@
   </si>
   <si>
     <t>File: 'D:\Andhi Khola and Jhimruk\Dscreen\average flows\bhadra_5-years-movingaverage.txt'</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Mean Annual Discharge</t>
+  </si>
+  <si>
+    <t>Man-Kendall's statistical value</t>
+  </si>
+  <si>
+    <t>Apparent trend</t>
+  </si>
+  <si>
+    <t>5-Years moving average</t>
+  </si>
+  <si>
+    <t>10-Years moving average</t>
+  </si>
+  <si>
+    <t>Jestha</t>
+  </si>
+  <si>
+    <t>Karkit</t>
+  </si>
+  <si>
+    <t>Description/Data Series</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\01baisakh.txt'</t>
+  </si>
+  <si>
+    <t>Apparent trend :  Start = 2052  End = 2079  Length = 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      3.110    0.6050     5.141   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope    0.04468   0.03992     1.119    0.2736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    1.616    Regression DF: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:    0.04772    Adj R-squared: 0.009632</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\02jeth.txt'</t>
+  </si>
+  <si>
+    <t>Apparent trend :  Start = 2053  End = 2079  Length = 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      7.536     1.899     3.969 0.0005703 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope   -0.09228    0.1303   -0.7084    0.4855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    4.982    Regression DF: 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:    0.02048    Adj R-squared: -0.02033</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\03asar.txt'</t>
+  </si>
+  <si>
+    <t>Apparent trend :  Start = 2052  End = 2079  Length = 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      38.58     6.789     5.683   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope    -0.1749    0.4315   -0.4054    0.6885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    18.44    Regression DF: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:   0.006281    Adj R-squared: -0.03194</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\04shrawann.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      83.64     8.037     10.41   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope    -0.6388    0.5109    -1.250    0.2223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    21.84    Regression DF: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:    0.05672    Adj R-squared: 0.02044</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\05bhadra.txt'</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\06asoj.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      39.48     5.279     7.478   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope     0.3175    0.3237    0.9808    0.3354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    14.58    Regression DF: 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:    0.03440    Adj R-squared: -0.001361</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\07kartik.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      13.46     1.967     6.843   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope     0.2515    0.1206     2.086   0.04656 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    5.433    Regression DF: 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:     0.1388    Adj R-squared: 0.1069</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\08mangsr.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      8.937    0.6044     14.79   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope   0.009670   0.03706    0.2609    0.7961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:    1.670    Regression DF: 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:   0.002515    Adj R-squared: -0.03443</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\09poush.txt'</t>
+  </si>
+  <si>
+    <t>Apparent trend :  Start = 2051  End = 2078  Length = 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      6.655    0.3618     18.39   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope  0.0006212   0.02300   0.02701    0.9787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:   0.9831    Regression DF: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:   2.806e-05    Adj R-squared: -0.03843</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\10maghh.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      5.657    0.3067     18.45   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope   0.004737   0.01949    0.2430    0.8099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:   0.8332    Regression DF: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:   0.002266    Adj R-squared: -0.03611</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\11falgun.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      4.938    0.2568     19.23   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope  -0.009231   0.01632   -0.5656    0.5765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:   0.6976    Regression DF: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:    0.01215    Adj R-squared: -0.02584</t>
+  </si>
+  <si>
+    <t>File: 'D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\ZDscreen\Trend Analysis files Jhimruk\12chaitra.txt'</t>
+  </si>
+  <si>
+    <t>Apparent trend :  Start = 2051  End = 2078  Length = 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const      4.085    0.3094     13.20   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slope  -0.006606   0.02041   -0.3236    0.7489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Residual SE:   0.8262    Regression DF: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R-squared:   0.004171    Adj R-squared: -0.03566</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tau  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.02421 **</t>
+  </si>
+  <si>
+    <t>Man-Kendall's  tau</t>
+  </si>
+  <si>
+    <t>Man-Kendall's  P-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,8 +959,13 @@
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,8 +990,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -769,12 +1020,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -817,6 +1094,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -858,10 +1159,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -898,10 +1196,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1051,10 +1346,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1091,10 +1383,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1129,10 +1418,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1181,10 +1467,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1221,10 +1504,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1253,10 +1533,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1303,6 +1580,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1319,6 +1599,467 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean discharge of Bhadra</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1009856285446839E-3"/>
+                  <c:y val="-0.37465773841981659"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bhadra!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bhadra!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>66.044800000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.926451612903207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.848387096774189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.750967741935469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.96838709677419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.9096875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.17419354838709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.7354838709677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.01783870967742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.16538709677419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.78400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.965032258064511</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.875096774193565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.957666666666668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.337290322580628</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.597451612903228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.300648387096786</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.475225806451604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.755193548387084</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.781000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.640032258064522</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.635580645161298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.671322580645153</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.625967741935469</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.799258064516131</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81.706580645161324</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>104.51203225806449</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.419387096774187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D185-44BD-9CEB-A5AAD8E50380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1860950688"/>
+        <c:axId val="1860948608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1860950688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860948608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860948608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860950688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1755,7 +2496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1779,6 +2520,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,7 +2959,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2679,7 +3421,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3141,7 +3883,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3597,7 +4339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4053,7 +4795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4509,7 +5251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5012,7 +5754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Mean_annaul_nepalimonths!$G$1</c:f>
+              <c:f>Mean_annaul_nepalimonths!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5107,101 +5849,100 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$F$2:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$G$2:$G$29</c:f>
+              <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>2051</c:v>
+                  <c:v>51/52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2052</c:v>
+                  <c:v>52/53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2053</c:v>
+                  <c:v>53/54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2054</c:v>
+                  <c:v>54/55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2055</c:v>
+                  <c:v>55/56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2056</c:v>
+                  <c:v>56/57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2057</c:v>
+                  <c:v>57/58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2058</c:v>
+                  <c:v>58/59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2059</c:v>
+                  <c:v>59/60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2060</c:v>
+                  <c:v>60/61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2061</c:v>
+                  <c:v>61/62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2062</c:v>
+                  <c:v>62/63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2063</c:v>
+                  <c:v>63/64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2064</c:v>
+                  <c:v>64/65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2065</c:v>
+                  <c:v>65/66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2066</c:v>
+                  <c:v>66/67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2067</c:v>
+                  <c:v>67/68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2068</c:v>
+                  <c:v>68/69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2069</c:v>
+                  <c:v>69/70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2070</c:v>
+                  <c:v>70/71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2071</c:v>
+                  <c:v>71/72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2072</c:v>
+                  <c:v>72/73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2073</c:v>
+                  <c:v>73/74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2074</c:v>
+                  <c:v>74/75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2075</c:v>
+                  <c:v>75/76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2076</c:v>
+                  <c:v>76/77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2077</c:v>
+                  <c:v>77/78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>78/79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$G$2:$G$29</c:f>
+              <c:f>Mean_annaul_nepalimonths!$H$2:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5728,92 +6469,91 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$H$2:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$I$2:$I$26</c:f>
+              <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2055</c:v>
+                  <c:v>55/56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2056</c:v>
+                  <c:v>56/57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2057</c:v>
+                  <c:v>57/58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2058</c:v>
+                  <c:v>58/59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2059</c:v>
+                  <c:v>59/60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2060</c:v>
+                  <c:v>60/61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2061</c:v>
+                  <c:v>61/62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2062</c:v>
+                  <c:v>62/63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2063</c:v>
+                  <c:v>63/64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2064</c:v>
+                  <c:v>64/65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2065</c:v>
+                  <c:v>65/66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2066</c:v>
+                  <c:v>66/67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2067</c:v>
+                  <c:v>67/68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2068</c:v>
+                  <c:v>68/69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2069</c:v>
+                  <c:v>69/70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2070</c:v>
+                  <c:v>70/71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2071</c:v>
+                  <c:v>71/72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2072</c:v>
+                  <c:v>72/73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2073</c:v>
+                  <c:v>73/74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2074</c:v>
+                  <c:v>74/75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2075</c:v>
+                  <c:v>75/76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2076</c:v>
+                  <c:v>76/77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2077</c:v>
+                  <c:v>77/78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2078</c:v>
+                  <c:v>78/79</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>79/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$I$2:$I$26</c:f>
+              <c:f>Mean_annaul_nepalimonths!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -6335,77 +7075,76 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$J$2:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$K$2:$K$21</c:f>
+              <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2060</c:v>
+                  <c:v>60/61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2061</c:v>
+                  <c:v>61/62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2062</c:v>
+                  <c:v>62/63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2063</c:v>
+                  <c:v>63/64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2064</c:v>
+                  <c:v>64/65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2065</c:v>
+                  <c:v>65/66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2066</c:v>
+                  <c:v>66/67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2067</c:v>
+                  <c:v>67/68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2068</c:v>
+                  <c:v>68/69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2069</c:v>
+                  <c:v>69/70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2070</c:v>
+                  <c:v>70/71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2071</c:v>
+                  <c:v>71/72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2072</c:v>
+                  <c:v>72/73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2073</c:v>
+                  <c:v>73/74</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2074</c:v>
+                  <c:v>74/75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2075</c:v>
+                  <c:v>75/76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2076</c:v>
+                  <c:v>76/77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2077</c:v>
+                  <c:v>77/78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2078</c:v>
+                  <c:v>78/79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>79/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mean_annaul_nepalimonths!$K$2:$K$21</c:f>
+              <c:f>Mean_annaul_nepalimonths!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6775,6 +7514,1050 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mean Annual Discharge, 5-Years and 10- Years Moving average of Jhimruk Khola</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10040618990151849"/>
+          <c:y val="9.108598448704916E-2"/>
+          <c:w val="0.83964890443674212"/>
+          <c:h val="0.71156483731143483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Annual Discharge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$B$2:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>51/52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52/53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53/54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54/55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55/56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56/57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57/58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58/59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59/60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60/61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61/62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62/63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63/64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64/65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65/66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66/67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67/68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68/69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69/70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70/71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71/72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72/73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73/74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74/75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75/76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76/77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77/78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78/79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mean_annaul_nepalimonths!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>17.83042253521127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.157237704918039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.269117486338793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.640712328767108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.131698630136992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.054675824175838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.058794520547956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.759762295081952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.95693650793649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.168630136986309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.968175637393772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.246828961748623</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.702416438356162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.309932876712349</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.528512511478407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.33737704918034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.061728767123299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.771803013698623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.130723287671227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.271084699453553</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.604638356164397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.470158904109574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.798565573770496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.822980874316929</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.502295890410952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.331871232876711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.340987945205455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.432248633879802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.610447368421063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-869D-4FCD-BF2E-5D69FB81CF9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-year moving average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$B$2:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>51/52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52/53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53/54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54/55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55/56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56/57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57/58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58/59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59/60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60/61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61/62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62/63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63/64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64/65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65/66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66/67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67/68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68/69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69/70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70/71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71/72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72/73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73/74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74/75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75/76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76/77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77/78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78/79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mean_annaul_nepalimonths!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="4">
+                  <c:v>25.805837737074437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.850688394867355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.230999757993338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.729128719741972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.192373555575841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.399759856945707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.982459819589298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.220066707829428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.00859753648427</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.479196810239443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.351173285137865</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.425013567495178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.787993528570109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.001870843638603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.966028925830379</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.71454336342541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.56799562482222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.849681652219477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.455034164233854</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.193485681562994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.439727919754468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.185174495096931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.559340303316109</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.486076915337968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.043570214158798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-869D-4FCD-BF2E-5D69FB81CF9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10-year moving average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mean_annaul_nepalimonths!$B$2:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>51/52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52/53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53/54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54/55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55/56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56/57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57/58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58/59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59/60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60/61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61/62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62/63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63/64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64/65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65/66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66/67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67/68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68/69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69/70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70/71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71/72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72/73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73/74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74/75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75/76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76/77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77/78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78/79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mean_annaul_nepalimonths!$E$2:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="9">
+                  <c:v>27.602798797010074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.416574107228325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.725533232911385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.368863128113123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.835785182907642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.875466571041784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.703736693542233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.004030118199768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.505234190061437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.222612868034908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.032858324281637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.496504596158697</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.318837590394793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.728452503936229</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.079757303696688</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.57713564158994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.876585059959577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.204510977767793</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.970555539785913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.118527947860894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-869D-4FCD-BF2E-5D69FB81CF9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1326524079"/>
+        <c:axId val="1326524495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1326524079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fiscal Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46578398197321697"/>
+              <c:y val="0.90099994643526704"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326524495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1326524495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Discharge (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326524079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62520523633605296"/>
+          <c:y val="0.11393892402817944"/>
+          <c:w val="0.25446314564519634"/>
+          <c:h val="0.23844212330601527"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
@@ -7202,7 +8985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7649,7 +9432,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8105,7 +9888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8561,467 +10344,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mean discharge of Bhadra</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.1009856285446839E-3"/>
-                  <c:y val="-0.37465773841981659"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>bhadra!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2061</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2062</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2063</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2065</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2066</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2067</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2071</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2073</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2074</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2075</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2076</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2077</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2078</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>bhadra!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>66.044800000000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.926451612903207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92.848387096774189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.750967741935469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123.96838709677419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.9096875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>117.17419354838709</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>113.7354838709677</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.01783870967742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92.61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.16538709677419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.78400000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.965032258064511</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90.875096774193565</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66.957666666666668</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68.337290322580628</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>74.597451612903228</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>70.300648387096786</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65.475225806451604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76.755193548387084</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.781000000000013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.640032258064522</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44.635580645161298</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>57.671322580645153</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64.625967741935469</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>63.799258064516131</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>81.706580645161324</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>104.51203225806449</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>54.419387096774187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D185-44BD-9CEB-A5AAD8E50380}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1860950688"/>
-        <c:axId val="1860948608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1860950688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1860948608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1860948608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1860950688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9143,6 +10465,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11233,20 +12595,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11270,15 +13148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514844</xdr:colOff>
+      <xdr:colOff>533894</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11295,7 +13173,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="3276599"/>
+          <a:off x="10648950" y="3371849"/>
           <a:ext cx="4782044" cy="3133725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12056,12 +13934,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21046</cdr:x>
-      <cdr:y>0.18283</cdr:y>
+      <cdr:x>0.22141</cdr:x>
+      <cdr:y>0.12828</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94708</cdr:x>
-      <cdr:y>0.26269</cdr:y>
+      <cdr:x>0.95803</cdr:x>
+      <cdr:y>0.20814</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -12070,8 +13948,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1098549" y="574675"/>
-          <a:ext cx="3844925" cy="251020"/>
+          <a:off x="1155688" y="403230"/>
+          <a:ext cx="3844935" cy="251020"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -12211,16 +14089,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>370413</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>26458</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2892686</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>5291</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>344750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>136259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12241,16 +14119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3081071</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>8201</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3164414</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>79639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>877093</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>84401</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>960436</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>155839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12271,13 +14149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1357313</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>174890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>489479</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>36777</xdr:rowOff>
@@ -12299,6 +14177,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>345280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3107530</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12306,16 +14214,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12809,8 +14717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -13391,6 +15299,1168 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="78.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2055</v>
+      </c>
+      <c r="B6" s="4">
+        <v>84.707798709677419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>2056</v>
+      </c>
+      <c r="B7" s="4">
+        <v>93.680776209677418</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2057</v>
+      </c>
+      <c r="B8" s="4">
+        <v>103.1303245967742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2058</v>
+      </c>
+      <c r="B9" s="4">
+        <v>107.30774395161291</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>2059</v>
+      </c>
+      <c r="B10" s="4">
+        <v>106.1611181451613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>2060</v>
+      </c>
+      <c r="B11" s="4">
+        <v>99.889440725806452</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2061</v>
+      </c>
+      <c r="B12" s="4">
+        <v>84.540580645161285</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>2062</v>
+      </c>
+      <c r="B13" s="4">
+        <v>77.862541935483861</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>2063</v>
+      </c>
+      <c r="B14" s="4">
+        <v>63.308451612903227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2064</v>
+      </c>
+      <c r="B15" s="4">
+        <v>68.479903225806453</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>2065</v>
+      </c>
+      <c r="B16" s="4">
+        <v>63.349436559139789</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>2066</v>
+      </c>
+      <c r="B17" s="4">
+        <v>70.183817204301093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>2067</v>
+      </c>
+      <c r="B18" s="4">
+        <v>68.346507526881709</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>2068</v>
+      </c>
+      <c r="B19" s="4">
+        <v>74.213630752688161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>2069</v>
+      </c>
+      <c r="B20" s="4">
+        <v>69.13365655913978</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>2070</v>
+      </c>
+      <c r="B21" s="4">
+        <v>71.093161935483863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2071</v>
+      </c>
+      <c r="B22" s="4">
+        <v>69.381903870967733</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2072</v>
+      </c>
+      <c r="B23" s="4">
+        <v>66.190420000000003</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>2073</v>
+      </c>
+      <c r="B24" s="4">
+        <v>61.057406451612913</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>2074</v>
+      </c>
+      <c r="B25" s="4">
+        <v>59.496625806451597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>2075</v>
+      </c>
+      <c r="B26" s="4">
+        <v>57.070780645161292</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>2076</v>
+      </c>
+      <c r="B27" s="4">
+        <v>57.874432258064523</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>2077</v>
+      </c>
+      <c r="B28" s="4">
+        <v>62.487741935483868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>2078</v>
+      </c>
+      <c r="B29" s="4">
+        <v>74.46303225806453</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>2079</v>
+      </c>
+      <c r="B30" s="4">
+        <v>73.81264516129032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE("=A",M2)</f>
+        <v>=A7</v>
+      </c>
+      <c r="O2" t="str">
+        <f>A7</f>
+        <v xml:space="preserve">    Slope    0.04468   0.03992     1.119    0.2736</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2">
+        <v>4.4679999999999997E-2</v>
+      </c>
+      <c r="S2">
+        <v>3.9919999999999997E-2</v>
+      </c>
+      <c r="T2">
+        <v>1.119</v>
+      </c>
+      <c r="U2">
+        <v>0.27360000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>M2+11</f>
+        <v>18</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N13" si="0">CONCATENATE("=A",M3)</f>
+        <v>=A18</v>
+      </c>
+      <c r="O3" t="str">
+        <f>A18</f>
+        <v xml:space="preserve">    Slope   -0.09228    0.1303   -0.7084    0.4855</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3">
+        <v>-9.2280000000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.1303</v>
+      </c>
+      <c r="T3">
+        <v>-0.70840000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.48549999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M13" si="1">M3+11</f>
+        <v>29</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>=A29</v>
+      </c>
+      <c r="O4" t="str">
+        <f>A29</f>
+        <v xml:space="preserve">    Slope    -0.1749    0.4315   -0.4054    0.6885</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R4">
+        <v>-0.1749</v>
+      </c>
+      <c r="S4">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="T4">
+        <v>-0.40539999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.6885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>=A40</v>
+      </c>
+      <c r="O5" t="str">
+        <f>A40</f>
+        <v xml:space="preserve">    Slope    -0.6388    0.5109    -1.250    0.2223</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R5">
+        <v>-0.63880000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="T5">
+        <v>-1.25</v>
+      </c>
+      <c r="U5">
+        <v>0.2223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>=A51</v>
+      </c>
+      <c r="O6" t="str">
+        <f>A51</f>
+        <v xml:space="preserve">    Slope    -0.9571    0.4800    -1.994   0.05635 *</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>282</v>
+      </c>
+      <c r="R6">
+        <v>-0.95709999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.48</v>
+      </c>
+      <c r="T6">
+        <v>-1.994</v>
+      </c>
+      <c r="U6">
+        <v>5.6349999999999997E-2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>=A62</v>
+      </c>
+      <c r="O7" t="str">
+        <f>A62</f>
+        <v xml:space="preserve">    Slope     0.3175    0.3237    0.9808    0.3354</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>282</v>
+      </c>
+      <c r="R7">
+        <v>0.3175</v>
+      </c>
+      <c r="S7">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.33539999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>=A73</v>
+      </c>
+      <c r="O8" t="str">
+        <f>A73</f>
+        <v xml:space="preserve">    Slope     0.2515    0.1206     2.086   0.04656 **</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>282</v>
+      </c>
+      <c r="R8">
+        <v>0.2515</v>
+      </c>
+      <c r="S8">
+        <v>0.1206</v>
+      </c>
+      <c r="T8">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="U8">
+        <v>4.6559999999999997E-2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>=A84</v>
+      </c>
+      <c r="O9" t="str">
+        <f>A84</f>
+        <v xml:space="preserve">    Slope   0.009670   0.03706    0.2609    0.7961</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="S9">
+        <v>3.7060000000000003E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="U9">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>=A95</v>
+      </c>
+      <c r="O10" t="str">
+        <f>A95</f>
+        <v xml:space="preserve">    Slope  0.0006212   0.02300   0.02701    0.9787</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>282</v>
+      </c>
+      <c r="R10">
+        <v>6.2120000000000003E-4</v>
+      </c>
+      <c r="S10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.7009999999999999E-2</v>
+      </c>
+      <c r="U10">
+        <v>0.97870000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>=A106</v>
+      </c>
+      <c r="O11" t="str">
+        <f>A106</f>
+        <v xml:space="preserve">    Slope   0.004737   0.01949    0.2430    0.8099</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>282</v>
+      </c>
+      <c r="R11">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="S11">
+        <v>1.949E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.80989999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>=A117</v>
+      </c>
+      <c r="O12" t="str">
+        <f>A117</f>
+        <v xml:space="preserve">    Slope  -0.009231   0.01632   -0.5656    0.5765</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>282</v>
+      </c>
+      <c r="R12">
+        <v>-9.2309999999999996E-3</v>
+      </c>
+      <c r="S12">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="T12">
+        <v>-0.56559999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.57650000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>=A128</v>
+      </c>
+      <c r="O13" t="str">
+        <f>A128</f>
+        <v xml:space="preserve">    Slope  -0.006606   0.02041   -0.3236    0.7489</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>282</v>
+      </c>
+      <c r="R13">
+        <v>-6.6059999999999999E-3</v>
+      </c>
+      <c r="S13">
+        <v>2.0410000000000001E-2</v>
+      </c>
+      <c r="T13">
+        <v>-0.3236</v>
+      </c>
+      <c r="U13">
+        <v>0.74890000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -13687,7 +16757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -13994,7 +17064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -14292,7 +17362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -14597,11 +17667,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -14902,7 +17972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -15198,11 +18268,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -15500,7 +18570,7 @@
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18262,9 +21332,9 @@
       <c r="A43" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="9" t="str">
-        <f>IF(B42&lt;B38, "Yes", "No")</f>
-        <v>No</v>
+      <c r="B43" s="22" t="str">
+        <f>IF(B42&lt;B38, "Yes", "Thre is no significant trend")</f>
+        <v>Thre is no significant trend</v>
       </c>
     </row>
   </sheetData>
@@ -18274,1415 +21344,2165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="12" max="13" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="24">
+        <v>-64</v>
+      </c>
+      <c r="C3" s="25">
+        <v>-0.21329999999999999</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.1409</v>
+      </c>
+      <c r="E3" s="25">
+        <v>-0.19620000000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3">
+        <v>-64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3">
+        <v>-0.21329999999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3">
+        <v>0.1409</v>
+      </c>
+      <c r="N3">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.1449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="24">
+        <v>-16</v>
+      </c>
+      <c r="C4" s="25">
+        <v>-5.3330000000000002E-2</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="E4" s="25">
+        <v>-0.21809999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4">
+        <v>-16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4">
+        <v>-5.3330000000000002E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="N4">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="O4">
+        <v>1.3180000000000001E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="24">
+        <v>22</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.1158</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="E5" s="25">
+        <v>-0.1913</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J5">
+        <v>0.1158</v>
+      </c>
+      <c r="L5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M5">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="N5">
+        <v>-3.024</v>
+      </c>
+      <c r="O5">
+        <v>7.2890000000000003E-3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="24">
+        <v>57</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E6" s="25">
+        <v>4.4679999999999997E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="24">
+        <v>7</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2.154E-2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="E7" s="25">
+        <v>-9.2280000000000001E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7">
+        <v>2.154E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7">
+        <v>0.89549999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24">
+        <v>-56</v>
+      </c>
+      <c r="C8" s="25">
+        <v>-0.14810000000000001</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="E8" s="25">
+        <v>-0.1749</v>
+      </c>
+      <c r="G8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8">
+        <v>-56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8">
+        <v>-0.14810000000000001</v>
+      </c>
+      <c r="L8" t="s">
+        <v>288</v>
+      </c>
+      <c r="M8">
+        <v>0.27850000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24">
+        <v>-54</v>
+      </c>
+      <c r="C9" s="25">
+        <v>-0.1429</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.2964</v>
+      </c>
+      <c r="E9" s="25">
+        <v>-0.63880000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9">
+        <v>-54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9">
+        <v>-0.1429</v>
+      </c>
+      <c r="L9" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9">
+        <v>0.2964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24">
+        <v>-120</v>
+      </c>
+      <c r="C10" s="25">
+        <v>-0.29559999999999997</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="25">
+        <v>-0.95709999999999995</v>
+      </c>
+      <c r="G10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10">
+        <v>-120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10">
+        <v>-0.29559999999999997</v>
+      </c>
+      <c r="L10" t="s">
+        <v>288</v>
+      </c>
+      <c r="M10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24">
+        <v>52</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.3175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J11">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>288</v>
+      </c>
+      <c r="M11">
+        <v>0.34039999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="24">
+        <v>58</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.3901</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.2515</v>
+      </c>
+      <c r="G12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="24">
+        <v>-20</v>
+      </c>
+      <c r="C13" s="25">
+        <v>-4.9259999999999998E-2</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="E13" s="25">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13">
+        <v>-20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13">
+        <v>-4.9259999999999998E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>288</v>
+      </c>
+      <c r="M13">
+        <v>0.72309999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24">
+        <v>-42</v>
+      </c>
+      <c r="C14" s="25">
+        <v>-0.1114</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="E14" s="25">
+        <v>6.2120000000000003E-4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14">
+        <v>-42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14">
+        <v>-0.1114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>288</v>
+      </c>
+      <c r="M14">
+        <v>0.41770000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
+        <v>-5</v>
+      </c>
+      <c r="C15" s="25">
+        <v>-1.328E-2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E15" s="25">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15">
+        <v>-5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15">
+        <v>-1.328E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>288</v>
+      </c>
+      <c r="M15">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="24">
+        <v>-18</v>
+      </c>
+      <c r="C16" s="25">
+        <v>-4.7620000000000003E-2</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="E16" s="25">
+        <v>-9.2309999999999996E-3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16">
+        <v>-18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16">
+        <v>-4.7620000000000003E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>288</v>
+      </c>
+      <c r="M16">
+        <v>0.73850000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24">
+        <v>2</v>
+      </c>
+      <c r="C17" s="25">
+        <v>5.7060000000000001E-3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="E17" s="25">
+        <v>-6.6059999999999999E-3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17">
+        <v>5.7060000000000001E-3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>288</v>
+      </c>
+      <c r="M17">
+        <v>0.98340000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="47.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="53" style="4" customWidth="1"/>
-    <col min="15" max="15" width="54" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="47.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="53" style="4" customWidth="1"/>
+    <col min="16" max="16" width="54" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>162</v>
-      </c>
+    <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="str">
-        <f>A1</f>
+      <c r="F1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="19" t="str">
+        <f>B1</f>
         <v>Year</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="19" t="str">
-        <f>F1</f>
+      <c r="H1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="19" t="str">
+        <f>G1</f>
         <v>Year</v>
       </c>
-      <c r="I1" s="19" t="str">
-        <f>C1</f>
+      <c r="J1" s="19" t="str">
+        <f>D1</f>
         <v>5-year moving average</v>
       </c>
-      <c r="J1" s="19" t="str">
-        <f>F1</f>
+      <c r="K1" s="19" t="str">
+        <f>G1</f>
         <v>Year</v>
       </c>
-      <c r="K1" s="19" t="str">
-        <f>D1</f>
+      <c r="L1" s="19" t="str">
+        <f>E1</f>
         <v>10-year moving average</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="18" t="str">
-        <f>G1</f>
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="str">
+        <f>H1</f>
         <v>Mean Annaul Discharge</v>
       </c>
-      <c r="N1" s="18" t="str">
-        <f>I1</f>
+      <c r="O1" s="18" t="str">
+        <f>J1</f>
         <v>5-year moving average</v>
       </c>
-      <c r="O1" s="18" t="str">
-        <f>K1</f>
+      <c r="P1" s="18" t="str">
+        <f>L1</f>
         <v>10-year moving average</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>2051</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>CONCATENATE(A2,"/",A3)</f>
+        <v>51/52</v>
+      </c>
+      <c r="C2" s="11">
         <v>17.83042253521127</v>
       </c>
-      <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G30" si="0">B2</f>
+        <v>51/52</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="str">
+        <f>G6</f>
+        <v>55/56</v>
+      </c>
+      <c r="J2" s="11">
+        <v>25.805837737074437</v>
+      </c>
+      <c r="K2" s="15" t="str">
+        <f>I7</f>
+        <v>60/61</v>
+      </c>
+      <c r="L2" s="11">
+        <v>27.602798797010074</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F30" si="0">A2</f>
-        <v>2051</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <f>F6</f>
-        <v>2055</v>
-      </c>
-      <c r="I2" s="11">
-        <v>25.805837737074437</v>
-      </c>
-      <c r="J2" s="15">
-        <f>H7</f>
-        <v>2060</v>
-      </c>
-      <c r="K2" s="11">
-        <v>27.602798797010074</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2052</v>
-      </c>
-      <c r="B3" s="11">
+        <v>192</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:B30" si="1">CONCATENATE(A3,"/",A4)</f>
+        <v>52/53</v>
+      </c>
+      <c r="C3" s="11">
         <v>20.157237704918039</v>
       </c>
-      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>2052</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G9" si="1">B3</f>
+      <c r="E3" s="11"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>52/53</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H9" si="2">C3</f>
         <v>20.157237704918039</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H26" si="2">F7</f>
-        <v>2056</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I26" si="3">G7</f>
+        <v>56/57</v>
+      </c>
+      <c r="J3" s="11">
         <v>28.850688394867355</v>
       </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J21" si="3">H8</f>
-        <v>2061</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="K3" s="15" t="str">
+        <f t="shared" ref="K3:K21" si="4">I8</f>
+        <v>61/62</v>
+      </c>
+      <c r="L3" s="11">
         <v>27.416574107228325</v>
       </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>2053</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>53/54</v>
+      </c>
+      <c r="C4" s="11">
         <v>29.269117486338793</v>
       </c>
-      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>2053</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>29.269117486338793</v>
+      <c r="E4" s="11"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>53/54</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>2057</v>
-      </c>
-      <c r="I4" s="11">
+        <v>29.269117486338793</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>57/58</v>
+      </c>
+      <c r="J4" s="11">
         <v>31.230999757993338</v>
       </c>
-      <c r="J4" s="15">
-        <f t="shared" si="3"/>
-        <v>2062</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="K4" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>62/63</v>
+      </c>
+      <c r="L4" s="11">
         <v>27.725533232911385</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="M4" s="13"/>
       <c r="N4" s="4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>2054</v>
-      </c>
-      <c r="B5" s="11">
+        <v>180</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>54/55</v>
+      </c>
+      <c r="C5" s="11">
         <v>30.640712328767108</v>
       </c>
-      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>2054</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>30.640712328767108</v>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54/55</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>2058</v>
-      </c>
-      <c r="I5" s="11">
+        <v>30.640712328767108</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>58/59</v>
+      </c>
+      <c r="J5" s="11">
         <v>30.729128719741972</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" si="3"/>
-        <v>2063</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>63/64</v>
+      </c>
+      <c r="L5" s="11">
         <v>26.368863128113123</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>2055</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>55/56</v>
+      </c>
+      <c r="C6" s="11">
         <v>31.131698630136992</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" ref="C6:C30" si="4">AVERAGE(B2:B6)</f>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6:D30" si="5">AVERAGE(C2:C6)</f>
         <v>25.805837737074437</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>2055</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>31.131698630136992</v>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>55/56</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>2059</v>
-      </c>
-      <c r="I6" s="11">
+        <v>31.131698630136992</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>59/60</v>
+      </c>
+      <c r="J6" s="11">
         <v>30.192373555575841</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="3"/>
-        <v>2064</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="K6" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>64/65</v>
+      </c>
+      <c r="L6" s="11">
         <v>25.835785182907642</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="M6" s="13"/>
       <c r="N6" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>2056</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="P6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>56/57</v>
+      </c>
+      <c r="C7" s="11">
         <v>33.054675824175838</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="4"/>
+      <c r="D7" s="11">
+        <f t="shared" si="5"/>
         <v>28.850688394867355</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>2056</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>33.054675824175838</v>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>56/57</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>2060</v>
-      </c>
-      <c r="I7" s="11">
+        <v>33.054675824175838</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>60/61</v>
+      </c>
+      <c r="J7" s="11">
         <v>29.399759856945707</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" si="3"/>
-        <v>2065</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>65/66</v>
+      </c>
+      <c r="L7" s="11">
         <v>24.875466571041784</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="M7" s="13"/>
       <c r="N7" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>2057</v>
-      </c>
-      <c r="B8" s="11">
+        <v>181</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>57/58</v>
+      </c>
+      <c r="C8" s="11">
         <v>32.058794520547956</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="4"/>
+      <c r="D8" s="11">
+        <f t="shared" si="5"/>
         <v>31.230999757993338</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>2057</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="1"/>
-        <v>32.058794520547956</v>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>57/58</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>2061</v>
-      </c>
-      <c r="I8" s="11">
+        <v>32.058794520547956</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>61/62</v>
+      </c>
+      <c r="J8" s="11">
         <v>25.982459819589298</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" si="3"/>
-        <v>2066</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="K8" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>66/67</v>
+      </c>
+      <c r="L8" s="11">
         <v>23.703736693542233</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>2058</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>58/59</v>
+      </c>
+      <c r="C9" s="11">
         <v>26.759762295081952</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="4"/>
+      <c r="D9" s="11">
+        <f t="shared" si="5"/>
         <v>30.729128719741972</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>2058</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>26.759762295081952</v>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>58/59</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>2062</v>
-      </c>
-      <c r="I9" s="11">
+        <v>26.759762295081952</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>62/63</v>
+      </c>
+      <c r="J9" s="11">
         <v>24.220066707829428</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>67/68</v>
+      </c>
+      <c r="L9" s="11">
+        <v>23.004030118199768</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>59/60</v>
+      </c>
+      <c r="C10" s="11">
+        <v>27.95693650793649</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="5"/>
+        <v>30.192373555575841</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>59/60</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>2067</v>
-      </c>
-      <c r="K9" s="11">
-        <v>23.004030118199768</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>2059</v>
-      </c>
-      <c r="B10" s="11">
-        <v>27.95693650793649</v>
-      </c>
-      <c r="C10" s="11">
+        <v>63/64</v>
+      </c>
+      <c r="J10" s="11">
+        <v>22.00859753648427</v>
+      </c>
+      <c r="K10" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>30.192373555575841</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>2059</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
-        <v>2063</v>
-      </c>
-      <c r="I10" s="11">
-        <v>22.00859753648427</v>
-      </c>
-      <c r="J10" s="15">
+        <v>68/69</v>
+      </c>
+      <c r="L10" s="11">
+        <v>22.505234190061437</v>
+      </c>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>60/61</v>
+      </c>
+      <c r="C11" s="11">
+        <v>27.168630136986309</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="5"/>
+        <v>29.399759856945707</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ref="E11:E30" si="6">AVERAGE(C2:C11)</f>
+        <v>27.602798797010074</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>60/61</v>
+      </c>
+      <c r="H11" s="5">
+        <f>C11</f>
+        <v>27.168630136986309</v>
+      </c>
+      <c r="I11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>2068</v>
-      </c>
-      <c r="K10" s="11">
-        <v>22.505234190061437</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>2060</v>
-      </c>
-      <c r="B11" s="11">
-        <v>27.168630136986309</v>
-      </c>
-      <c r="C11" s="11">
+        <v>64/65</v>
+      </c>
+      <c r="J11" s="11">
+        <v>21.479196810239443</v>
+      </c>
+      <c r="K11" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>29.399759856945707</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D30" si="5">AVERAGE(B2:B11)</f>
-        <v>27.602798797010074</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="G11" s="5">
-        <f>B11</f>
-        <v>27.168630136986309</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="2"/>
-        <v>2064</v>
-      </c>
-      <c r="I11" s="11">
-        <v>21.479196810239443</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="3"/>
-        <v>2069</v>
-      </c>
-      <c r="K11" s="11">
+        <v>69/70</v>
+      </c>
+      <c r="L11" s="11">
         <v>22.222612868034908</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="M11" s="13"/>
       <c r="N11" s="4" t="s">
         <v>129</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>2061</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="P11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>61/62</v>
+      </c>
+      <c r="C12" s="11">
         <v>15.968175637393772</v>
-      </c>
-      <c r="C12" s="11">
-        <f t="shared" si="4"/>
-        <v>25.982459819589298</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="5"/>
+        <v>25.982459819589298</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="6"/>
         <v>27.416574107228325</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>2061</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>2065</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="F12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>61/62</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>65/66</v>
+      </c>
+      <c r="J12" s="11">
         <v>20.351173285137865</v>
       </c>
-      <c r="J12" s="15">
-        <f t="shared" si="3"/>
-        <v>2070</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="K12" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>70/71</v>
+      </c>
+      <c r="L12" s="11">
         <v>22.032858324281637</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="M12" s="13"/>
       <c r="N12" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>2062</v>
-      </c>
-      <c r="B13" s="11">
+        <v>183</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>62/63</v>
+      </c>
+      <c r="C13" s="11">
         <v>23.246828961748623</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" si="4"/>
-        <v>24.220066707829428</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="5"/>
+        <v>24.220066707829428</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="6"/>
         <v>27.725533232911385</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>2062</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" ref="G13:G29" si="6">B13</f>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62/63</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13:H29" si="7">C13</f>
         <v>23.246828961748623</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
-        <v>2066</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>66/67</v>
+      </c>
+      <c r="J13" s="11">
         <v>21.425013567495178</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="3"/>
-        <v>2071</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="K13" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>71/72</v>
+      </c>
+      <c r="L13" s="11">
         <v>22.496504596158697</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>2063</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>63/64</v>
+      </c>
+      <c r="C14" s="11">
         <v>15.702416438356162</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" si="4"/>
-        <v>22.00859753648427</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="5"/>
+        <v>22.00859753648427</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="6"/>
         <v>26.368863128113123</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>2063</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>63/64</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="7"/>
         <v>15.702416438356162</v>
       </c>
-      <c r="H14" s="5">
-        <f t="shared" si="2"/>
-        <v>2067</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>67/68</v>
+      </c>
+      <c r="J14" s="11">
         <v>21.787993528570109</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="3"/>
-        <v>2072</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="K14" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>72/73</v>
+      </c>
+      <c r="L14" s="11">
         <v>22.318837590394793</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M14" s="13"/>
       <c r="N14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>2064</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="P14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>64/65</v>
+      </c>
+      <c r="C15" s="11">
         <v>25.309932876712349</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="4"/>
-        <v>21.479196810239443</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="5"/>
+        <v>21.479196810239443</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="6"/>
         <v>25.835785182907642</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>2064</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>64/65</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="7"/>
         <v>25.309932876712349</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="2"/>
-        <v>2068</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>68/69</v>
+      </c>
+      <c r="J15" s="11">
         <v>23.001870843638603</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="3"/>
-        <v>2073</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="K15" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>73/74</v>
+      </c>
+      <c r="L15" s="11">
         <v>23.728452503936229</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="M15" s="13"/>
       <c r="N15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>2065</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="P15" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>65/66</v>
+      </c>
+      <c r="C16" s="11">
         <v>21.528512511478407</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" si="4"/>
-        <v>20.351173285137865</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="5"/>
+        <v>20.351173285137865</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="6"/>
         <v>24.875466571041784</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>2065</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>65/66</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="7"/>
         <v>21.528512511478407</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>2069</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>69/70</v>
+      </c>
+      <c r="J16" s="11">
         <v>22.966028925830379</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="3"/>
-        <v>2074</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="K16" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>74/75</v>
+      </c>
+      <c r="L16" s="11">
         <v>23.079757303696688</v>
       </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>2066</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>66/67</v>
+      </c>
+      <c r="C17" s="11">
         <v>21.33737704918034</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="4"/>
-        <v>21.425013567495178</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="5"/>
+        <v>21.425013567495178</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="6"/>
         <v>23.703736693542233</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>2066</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>66/67</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="7"/>
         <v>21.33737704918034</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
-        <v>2070</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>70/71</v>
+      </c>
+      <c r="J17" s="11">
         <v>23.71454336342541</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" si="3"/>
-        <v>2075</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="K17" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>75/76</v>
+      </c>
+      <c r="L17" s="11">
         <v>22.57713564158994</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="M17" s="13"/>
       <c r="N17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>2067</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="P17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>67/68</v>
+      </c>
+      <c r="C18" s="11">
         <v>25.061728767123299</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="4"/>
-        <v>21.787993528570109</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="5"/>
+        <v>21.787993528570109</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="6"/>
         <v>23.004030118199768</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>2067</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>67/68</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="7"/>
         <v>25.061728767123299</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>2071</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>71/72</v>
+      </c>
+      <c r="J18" s="11">
         <v>23.56799562482222</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="3"/>
-        <v>2076</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="K18" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>76/77</v>
+      </c>
+      <c r="L18" s="11">
         <v>22.876585059959577</v>
       </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>2068</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>68/69</v>
+      </c>
+      <c r="C19" s="11">
         <v>21.771803013698623</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="4"/>
-        <v>23.001870843638603</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="5"/>
+        <v>23.001870843638603</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="6"/>
         <v>22.505234190061437</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>2068</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>68/69</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="7"/>
         <v>21.771803013698623</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="2"/>
-        <v>2072</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>72/73</v>
+      </c>
+      <c r="J19" s="11">
         <v>22.849681652219477</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="3"/>
-        <v>2077</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="K19" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>77/78</v>
+      </c>
+      <c r="L19" s="11">
         <v>23.204510977767793</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="M19" s="13"/>
       <c r="N19" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>2069</v>
-      </c>
-      <c r="B20" s="11">
+        <v>184</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>69/70</v>
+      </c>
+      <c r="C20" s="11">
         <v>25.130723287671227</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="4"/>
-        <v>22.966028925830379</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="5"/>
+        <v>22.966028925830379</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="6"/>
         <v>22.222612868034908</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>2069</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>69/70</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="7"/>
         <v>25.130723287671227</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>2073</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>73/74</v>
+      </c>
+      <c r="J20" s="11">
         <v>24.455034164233854</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" si="3"/>
-        <v>2078</v>
-      </c>
-      <c r="K20" s="11">
+      <c r="K20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>78/79</v>
+      </c>
+      <c r="L20" s="11">
         <v>23.970555539785913</v>
       </c>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>2070</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>70/71</v>
+      </c>
+      <c r="C21" s="11">
         <v>25.271084699453553</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="4"/>
-        <v>23.71454336342541</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="5"/>
+        <v>23.71454336342541</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="6"/>
         <v>22.032858324281637</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>2070</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>70/71</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="7"/>
         <v>25.271084699453553</v>
       </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>2074</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>74/75</v>
+      </c>
+      <c r="J21" s="11">
         <v>23.193485681562994</v>
       </c>
-      <c r="J21" s="15">
-        <f t="shared" si="3"/>
-        <v>2079</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="K21" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>79/80</v>
+      </c>
+      <c r="L21" s="11">
         <v>26.118527947860894</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="M21" s="13"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>2071</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="P21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>71/72</v>
+      </c>
+      <c r="C22" s="11">
         <v>20.604638356164397</v>
-      </c>
-      <c r="C22" s="11">
-        <f t="shared" si="4"/>
-        <v>23.56799562482222</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="5"/>
+        <v>23.56799562482222</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="6"/>
         <v>22.496504596158697</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>2071</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>71/72</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="7"/>
         <v>20.604638356164397</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>2075</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>75/76</v>
+      </c>
+      <c r="J22" s="11">
         <v>21.439727919754468</v>
       </c>
-      <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="M22" s="13"/>
       <c r="N22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>2072</v>
-      </c>
-      <c r="B23" s="11">
+        <v>64</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>72/73</v>
+      </c>
+      <c r="C23" s="11">
         <v>21.470158904109574</v>
-      </c>
-      <c r="C23" s="11">
-        <f t="shared" si="4"/>
-        <v>22.849681652219477</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="5"/>
+        <v>22.849681652219477</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="6"/>
         <v>22.318837590394793</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>2072</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>72/73</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="7"/>
         <v>21.470158904109574</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>2076</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>76/77</v>
+      </c>
+      <c r="J23" s="11">
         <v>22.185174495096931</v>
       </c>
-      <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="M23" s="13"/>
       <c r="N23" s="4" t="s">
         <v>65</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>2073</v>
-      </c>
-      <c r="B24" s="11">
+        <v>65</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>73/74</v>
+      </c>
+      <c r="C24" s="11">
         <v>29.798565573770496</v>
-      </c>
-      <c r="C24" s="11">
-        <f t="shared" si="4"/>
-        <v>24.455034164233854</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="5"/>
+        <v>24.455034164233854</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="6"/>
         <v>23.728452503936229</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>2073</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>73/74</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="7"/>
         <v>29.798565573770496</v>
       </c>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
-        <v>2077</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>77/78</v>
+      </c>
+      <c r="J24" s="11">
         <v>23.559340303316109</v>
       </c>
-      <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>2074</v>
-      </c>
-      <c r="B25" s="11">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>74/75</v>
+      </c>
+      <c r="C25" s="11">
         <v>18.822980874316929</v>
-      </c>
-      <c r="C25" s="11">
-        <f t="shared" si="4"/>
-        <v>23.193485681562994</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="5"/>
+        <v>23.193485681562994</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="6"/>
         <v>23.079757303696688</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>2074</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>74/75</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="7"/>
         <v>18.822980874316929</v>
       </c>
-      <c r="H25" s="5">
-        <f t="shared" si="2"/>
-        <v>2078</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>78/79</v>
+      </c>
+      <c r="J25" s="11">
         <v>23.486076915337968</v>
       </c>
-      <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="13"/>
+      <c r="N25" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>2075</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="P25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>75/76</v>
+      </c>
+      <c r="C26" s="11">
         <v>16.502295890410952</v>
-      </c>
-      <c r="C26" s="11">
-        <f t="shared" si="4"/>
-        <v>21.439727919754468</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="5"/>
+        <v>21.439727919754468</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="6"/>
         <v>22.57713564158994</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>2075</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>75/76</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="7"/>
         <v>16.502295890410952</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="2"/>
-        <v>2079</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>79/80</v>
+      </c>
+      <c r="J26" s="11">
         <v>29.043570214158798</v>
       </c>
-      <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="M26" s="13"/>
       <c r="N26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>2076</v>
-      </c>
-      <c r="B27" s="11">
+      <c r="P26" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>76/77</v>
+      </c>
+      <c r="C27" s="11">
         <v>24.331871232876711</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" si="4"/>
-        <v>22.185174495096931</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="5"/>
+        <v>22.185174495096931</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="6"/>
         <v>22.876585059959577</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>2076</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>76/77</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="7"/>
         <v>24.331871232876711</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>2077</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>77/78</v>
+      </c>
+      <c r="C28" s="11">
         <v>28.340987945205455</v>
-      </c>
-      <c r="C28" s="11">
-        <f t="shared" si="4"/>
-        <v>23.559340303316109</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="5"/>
+        <v>23.559340303316109</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="6"/>
         <v>23.204510977767793</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>2077</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>77/78</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="7"/>
         <v>28.340987945205455</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="M28" s="4" t="s">
+      <c r="K28" s="13"/>
+      <c r="N28" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>2078</v>
-      </c>
-      <c r="B29" s="11">
+      <c r="P28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>78/79</v>
+      </c>
+      <c r="C29" s="11">
         <v>29.432248633879802</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="4"/>
-        <v>23.486076915337968</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="5"/>
+        <v>23.486076915337968</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="6"/>
         <v>23.970555539785913</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>2078</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>78/79</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="7"/>
         <v>29.432248633879802</v>
       </c>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>2079</v>
-      </c>
-      <c r="B30" s="11">
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>79/80</v>
+      </c>
+      <c r="C30" s="11">
         <v>46.610447368421063</v>
-      </c>
-      <c r="C30" s="11">
-        <f t="shared" si="4"/>
-        <v>29.043570214158798</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="5"/>
+        <v>29.043570214158798</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="6"/>
         <v>26.118527947860894</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>2079</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="J30" s="13"/>
-      <c r="M30" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="F30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>79/80</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="K30" s="13"/>
       <c r="N30" s="4" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M31" s="4" t="s">
+      <c r="P30" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>80</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N32" s="4" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M33" s="21" t="s">
+      <c r="P32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M36" s="4" t="s">
+    <row r="36" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N36" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M37" s="4" t="s">
+      <c r="P36" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N38" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M38" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N39" s="4" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.35">
       <c r="O39" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M40" s="4" t="s">
+      <c r="P39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N40" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N41" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="41" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="O42" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N42" s="4" t="s">
+    <row r="43" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="O43" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N43" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N44" s="21" t="s">
-        <v>26</v>
-      </c>
+    <row r="44" spans="14:16" x14ac:dyDescent="0.35">
       <c r="O44" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N45" s="4" t="s">
+      <c r="P44" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="O45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O45" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N47" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="P45" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="14:16" x14ac:dyDescent="0.35">
       <c r="O47" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="N48" s="4" t="s">
+      <c r="P47" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="O48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N49" s="4" t="s">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O51" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N51" s="4" t="s">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O52" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -19691,12 +23511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19982,7 +23802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -20274,11 +24094,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -20639,7 +24459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -20935,12 +24755,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -20960,13 +24780,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -21464,356 +25284,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="78.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2055</v>
-      </c>
-      <c r="B6" s="4">
-        <v>84.707798709677419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2056</v>
-      </c>
-      <c r="B7" s="4">
-        <v>93.680776209677418</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2057</v>
-      </c>
-      <c r="B8" s="4">
-        <v>103.1303245967742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>2058</v>
-      </c>
-      <c r="B9" s="4">
-        <v>107.30774395161291</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>2059</v>
-      </c>
-      <c r="B10" s="4">
-        <v>106.1611181451613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>2060</v>
-      </c>
-      <c r="B11" s="4">
-        <v>99.889440725806452</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>2061</v>
-      </c>
-      <c r="B12" s="4">
-        <v>84.540580645161285</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>2062</v>
-      </c>
-      <c r="B13" s="4">
-        <v>77.862541935483861</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>2063</v>
-      </c>
-      <c r="B14" s="4">
-        <v>63.308451612903227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>2064</v>
-      </c>
-      <c r="B15" s="4">
-        <v>68.479903225806453</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>2065</v>
-      </c>
-      <c r="B16" s="4">
-        <v>63.349436559139789</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>2066</v>
-      </c>
-      <c r="B17" s="4">
-        <v>70.183817204301093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>2067</v>
-      </c>
-      <c r="B18" s="4">
-        <v>68.346507526881709</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>2068</v>
-      </c>
-      <c r="B19" s="4">
-        <v>74.213630752688161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>2069</v>
-      </c>
-      <c r="B20" s="4">
-        <v>69.13365655913978</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>2070</v>
-      </c>
-      <c r="B21" s="4">
-        <v>71.093161935483863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>2071</v>
-      </c>
-      <c r="B22" s="4">
-        <v>69.381903870967733</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>2072</v>
-      </c>
-      <c r="B23" s="4">
-        <v>66.190420000000003</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>2073</v>
-      </c>
-      <c r="B24" s="4">
-        <v>61.057406451612913</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>2074</v>
-      </c>
-      <c r="B25" s="4">
-        <v>59.496625806451597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>2075</v>
-      </c>
-      <c r="B26" s="4">
-        <v>57.070780645161292</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>2076</v>
-      </c>
-      <c r="B27" s="4">
-        <v>57.874432258064523</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>2077</v>
-      </c>
-      <c r="B28" s="4">
-        <v>62.487741935483868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>2078</v>
-      </c>
-      <c r="B29" s="4">
-        <v>74.46303225806453</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>2079</v>
-      </c>
-      <c r="B30" s="4">
-        <v>73.81264516129032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>